--- a/artifact/payment_data/payment_links_excel.xlsx
+++ b/artifact/payment_data/payment_links_excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaasu Bisht\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaasu Bisht\Desktop\Event_Ticket_Generator_with_QRCode\artifact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3062588D-2D3D-45A2-8388-399072D95C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6BD18F-756D-4998-B5C3-998356F62035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t>payment button id</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>failed</t>
-  </si>
-  <si>
-    <t>Omdena Event</t>
   </si>
   <si>
     <t>order_LQf8k4C4lj53423</t>
@@ -516,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -686,7 +683,7 @@
         <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q3" t="s">
         <v>28</v>
@@ -697,13 +694,13 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -730,13 +727,13 @@
         <v>25</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>9893323161</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
         <v>30</v>
@@ -750,13 +747,13 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -783,16 +780,16 @@
         <v>25</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>9893768161</v>
       </c>
       <c r="O5" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" t="s">
         <v>41</v>
-      </c>
-      <c r="P5" t="s">
-        <v>42</v>
       </c>
       <c r="Q5" t="s">
         <v>28</v>

--- a/artifact/payment_data/payment_links_excel.xlsx
+++ b/artifact/payment_data/payment_links_excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaasu Bisht\Desktop\Event_Ticket_Generator_with_QRCode\artifact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vaasu Bisht\Desktop\Event_Ticket_Generator_with_QRCode\artifact\payment_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6BD18F-756D-4998-B5C3-998356F62035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C1C3FD-CBE3-4D72-BE24-DACF1BDF5D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>payment button id</t>
   </si>
@@ -129,18 +129,12 @@
     <t>anand.lahoti2021@vitbhopal.ac.in</t>
   </si>
   <si>
-    <t>EVENT NAME</t>
-  </si>
-  <si>
     <t>rishabh.kabra2021@vitbhopal.ac.in</t>
   </si>
   <si>
     <t>Rishabh Kabra</t>
   </si>
   <si>
-    <t>failed</t>
-  </si>
-  <si>
     <t>order_LQf8k4C4lj53423</t>
   </si>
   <si>
@@ -163,6 +157,9 @@
   </si>
   <si>
     <t>vans.dugar2021@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t>PUBJABI CLUB EVENT</t>
   </si>
 </sst>
 </file>
@@ -513,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -588,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -641,7 +638,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -668,22 +665,22 @@
         <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
         <v>25</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>9310370781</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q3" t="s">
         <v>28</v>
@@ -694,13 +691,13 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -727,13 +724,13 @@
         <v>25</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N4">
         <v>9893323161</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P4" t="s">
         <v>30</v>
@@ -747,13 +744,13 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -780,16 +777,16 @@
         <v>25</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>9893768161</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q5" t="s">
         <v>28</v>
